--- a/output/google_maps_data_Penginapan_Gunungkidul.xlsx
+++ b/output/google_maps_data_Penginapan_Gunungkidul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>0812-2971-4848</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>-8.145787</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.145787</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.60744</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Penginapan+Sea+View+Sundak+Indraprastha/@-7.9952936,110.3706212,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb8cb872bd0b:0x4f46a95e5331d71a!5m2!4m1!1i2!8m2!3d-8.1457875!4d110.6074397!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fb0wcn5t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Penginapan+Sea+View+Sundak+Indraprastha/@-7.9952936,110.3706212,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb8cb872bd0b:0x4f46a95e5331d71a!5m2!4m1!1i2!8m2!3d-8.1457875!4d110.6074397!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fb0wcn5t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -557,25 +551,24 @@
           <t>0882-3924-0276</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>-7.877518</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.877518</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.45515</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Penginapan+Rudi/@-7.8775176,110.1667593,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5300ca97573b:0x5703ade2415e09c8!5m2!4m1!1i2!8m2!3d-7.8775176!4d110.4551504!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11jj3tw804?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Penginapan+Rudi/@-7.8775176,110.1667593,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5300ca97573b:0x5703ade2415e09c8!5m2!4m1!1i2!8m2!3d-7.8775176!4d110.4551504!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11jj3tw804?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -603,25 +596,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>-7.969109</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.969109</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.604537</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kenewae+Living+Near+Alun-alun+Wonosari+Mitra+RedDoorz/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3d43759130f:0x4ccae0c7fa4aa90d!5m2!4m1!1i2!8m2!3d-7.9691094!4d110.6045372!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11vhbyv65v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kenewae+Living+Near+Alun-alun+Wonosari+Mitra+RedDoorz/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3d43759130f:0x4ccae0c7fa4aa90d!5m2!4m1!1i2!8m2!3d-7.9691094!4d110.6045372!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11vhbyv65v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>3 minggu lalu di 
 Google</t>
@@ -649,25 +641,24 @@
           <t>0823-2467-7762</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.3</v>
+        <v>-8.148939</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.148939</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.61572</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Penginapan+Putra+Darma/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba29f151669b:0x33417b7d769cd479!5m2!4m1!1i2!8m2!3d-8.1489394!4d110.6157204!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11c0vm87qy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Penginapan+Putra+Darma/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba29f151669b:0x33417b7d769cd479!5m2!4m1!1i2!8m2!3d-8.1489394!4d110.6157204!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11c0vm87qy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -695,25 +686,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>-8.048189000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.048189000000001</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.584603</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Orchid+Inn+Hotel/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb16c2ee6876f:0x4827679755f74f12!5m2!4m1!1i2!8m2!3d-8.0481889!4d110.5846026!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11bx9x8f2w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -736,25 +726,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>2.7</v>
+      </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>-7.960152</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.960152</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.603253</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisma+Handayani+Syariah/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb32241f408cb:0x2bbacf92b0323ab5!5m2!4m1!1i2!8m2!3d-7.9601523!4d110.6032528!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11s8y1rgr5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisma+Handayani+Syariah/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb32241f408cb:0x2bbacf92b0323ab5!5m2!4m1!1i2!8m2!3d-7.9601523!4d110.6032528!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11s8y1rgr5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -778,25 +767,24 @@
           <t>0812-3948-3314</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.9</v>
+        <v>-7.938662</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.938662</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.575609</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/D'Ninetysix+Inn+Hotel+Gunungkidul/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a4d68cc807957:0xb6ecd7a62c7d9477!5m2!4m1!1i2!8m2!3d-7.9386619!4d110.5756093!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11vk7hq5pw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -811,25 +799,24 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.2</v>
+        <v>-8.130756999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.130756999999999</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.555348</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hotel+Kukup+Indah/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba919704890f:0x24a5756b854b6de7!5m2!4m1!1i2!8m2!3d-8.1307571!4d110.5553475!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11byts_cmf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hotel+Kukup+Indah/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba919704890f:0x24a5756b854b6de7!5m2!4m1!1i2!8m2!3d-8.1307571!4d110.5553475!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11byts_cmf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>5 jam lalu di 
 Google</t>
@@ -857,25 +844,24 @@
           <t>0821-3806-2008</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.3</v>
+        <v>-8.150012</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.150012</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.614156</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Penginapan+GRIYAwatukelir/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba2a327a9cbd:0xfad09cc601945d8e!5m2!4m1!1i2!8m2!3d-8.150012!4d110.6141558!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11hbgrsxpp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Penginapan+GRIYAwatukelir/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba2a327a9cbd:0xfad09cc601945d8e!5m2!4m1!1i2!8m2!3d-8.150012!4d110.6141558!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11hbgrsxpp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>6 bulan lalu di 
 Google</t>
@@ -903,25 +889,24 @@
           <t>0819-1420-2299</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>-7.968984</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.968984</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.598641</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+NgGunung/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb341f9fa2c2b:0x285b20837658484b!5m2!4m1!1i2!8m2!3d-7.968984!4d110.5986406!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbG9kZ2XgAQA!16s%2Fg%2F11cfdzwqb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+NgGunung/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb341f9fa2c2b:0x285b20837658484b!5m2!4m1!1i2!8m2!3d-7.968984!4d110.5986406!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbG9kZ2XgAQA!16s%2Fg%2F11cfdzwqb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -945,25 +930,24 @@
           <t>(021) 29706666</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F12" t="n">
-        <v>3.9</v>
+        <v>-8.144833</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.144833</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.598708</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Penginapan+Mayasari/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba39fec97cdb:0xc1c6546c71322aa2!5m2!4m1!1i2!8m2!3d-8.1448332!4d110.5987082!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11ddyjf2pn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Penginapan+Mayasari/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba39fec97cdb:0xc1c6546c71322aa2!5m2!4m1!1i2!8m2!3d-8.1448332!4d110.5987082!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11ddyjf2pn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>4 bulan lalu di 
 Google</t>
@@ -991,25 +975,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F13" t="n">
-        <v>3.3</v>
+        <v>-7.972163</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.972163</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.602285</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+Syariah+near+Alun+Alun+Wonosari/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb310588bcbef:0x942e9b91aa2047db!5m2!4m1!1i2!8m2!3d-7.9721627!4d110.6022846!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11vl2sl8jm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+Syariah+near+Alun+Alun+Wonosari/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb310588bcbef:0x942e9b91aa2047db!5m2!4m1!1i2!8m2!3d-7.9721627!4d110.6022846!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11vl2sl8jm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -1034,22 +1017,21 @@
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-7.967266</v>
+      </c>
       <c r="G14" t="n">
-        <v>-7.967266</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.603992</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Omah+Artho+Moro/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb342da7dd3a1:0xff35fe2784294f4a!5m2!4m1!1i2!8m2!3d-7.9672658!4d110.6039922!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fylpwh_p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1068,25 +1050,24 @@
           <t>0821-3813-7696</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>-7.956383</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.956383</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.591889</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dea+Lokha+HOTEL/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3db3355f303:0xd82c70d83166eed4!5m2!4m1!1i2!8m2!3d-7.9563827!4d110.5918885!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fpq6jvvl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dea+Lokha+HOTEL/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3db3355f303:0xd82c70d83166eed4!5m2!4m1!1i2!8m2!3d-7.9563827!4d110.5918885!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fpq6jvvl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -1114,25 +1095,24 @@
           <t>0821-3563-3400</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>-7.840641</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.840641</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.493138</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kopilimo/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a51b75d79a43f:0x5c0269035442d303!5m2!4m1!1i2!8m2!3d-7.8406406!4d110.4931382!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11bzt72jfq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1155,25 +1135,24 @@
           <t>0822-2604-0562</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>-8.146508000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.146508000000001</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.606874</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Omah+Sundak/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba2fba73ff5f:0x19120f18016cc74e!5m2!4m1!1i2!8m2!3d-8.1465081!4d110.6068736!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11b808s9lr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1192,25 +1171,24 @@
           <t>(0274) 391152</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>-7.963848</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.963848</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.598419</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Calida+Hotel+RedPartner+near+Alun+Alun+Wonosari/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb346afd03c77:0xbf49aca77bfcc850!5m2!4m1!1i2!8m2!3d-7.9638477!4d110.5984187!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11bwhbl8vg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1233,21 +1211,20 @@
           <t>0813-2525-3300</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
+      <c r="E19" t="n">
         <v>4.5</v>
       </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/The+Royal+Joglo/@-7.9691094,110.3161461,11z/data=!4m16!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m11!1s0x2e7bba39f0b26dc7:0x76377fc6a5959959!5m2!4m1!1i2!8m2!3d-8.14432!4d110.598625!9m1!1b1!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11hbbl8ncl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1270,25 +1247,24 @@
           <t>0858-7007-9452</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F20" t="n">
-        <v>3.9</v>
+        <v>-8.131833</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.131833</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.555934</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Joko+Samudro/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba91937159df:0x65dadce08dd5d70a!5m2!4m1!1i2!8m2!3d-8.1318328!4d110.5559339!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fqv490nw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1307,25 +1283,24 @@
           <t>(0274) 392030</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.2</v>
+        <v>-7.975842</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.975842</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.598902</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hotel+Cyka+Raya/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb36c1e472de1:0xda65348bc076439d!5m2!4m1!1i2!8m2!3d-7.9758425!4d110.5989016!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11bxfs7pn5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1344,25 +1319,24 @@
           <t>(021) 29706666</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F22" t="n">
-        <v>3.9</v>
+        <v>-8.144833</v>
       </c>
       <c r="G22" t="n">
-        <v>-8.144833</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.598708</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Penginapan+Mayasari/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba39fec97cdb:0xc1c6546c71322aa2!5m2!4m1!1i2!8m2!3d-8.1448332!4d110.5987082!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11ddyjf2pn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Penginapan+Mayasari/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba39fec97cdb:0xc1c6546c71322aa2!5m2!4m1!1i2!8m2!3d-8.1448332!4d110.5987082!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11ddyjf2pn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>4 bulan lalu di 
 Google</t>
@@ -1390,25 +1364,24 @@
           <t>0815-2552-848</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.6</v>
+        <v>-8.132206</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.132206</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.589083</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Drini+Hills/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb2074f562c9:0x62950ce1b6fdbaaf!5m2!4m1!1i2!8m2!3d-8.1322065!4d110.589083!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11ngyp7qw5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1423,25 +1396,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>-8.025383</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.025383</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.334856</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Yudhistira/@-8.025383,110.046465,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bab4b674ce6ff:0xab10fd4354afff32!5m2!4m1!1i2!8m2!3d-8.025383!4d110.3348561!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgERYmVkX2FuZF9icmVha2Zhc3TgAQA!16s%2Fg%2F11t77nrwpp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1460,25 +1432,24 @@
           <t>(0274) 392030</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.2</v>
+        <v>-7.975842</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.975842</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.598902</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hotel+Cyka+Raya/@-7.9758425,110.3105105,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb36c1e472de1:0xda65348bc076439d!5m2!4m1!1i2!8m2!3d-7.9758425!4d110.5989016!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11bxfs7pn5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1501,25 +1472,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>2.8</v>
+      </c>
       <c r="F26" t="n">
-        <v>2.8</v>
+        <v>-7.926437</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.926437</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.646063</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay+Arva+komplek+pindul(Nyamplung)/@-7.9758425,110.3105105,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a4b3e0f8e4a03:0x894d333a36c6c2e1!5m2!4m1!1i2!8m2!3d-7.9264375!4d110.6460625!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11c60mt_s3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1534,25 +1504,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.8</v>
+        <v>-8.106116999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-8.106116999999999</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.463357</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Watu+Resort+Gunung+Kidul/@-8.1061166,110.1749662,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baf42b5a2bce7:0x30204f7140e89bb3!5m2!4m1!1i2!8m2!3d-8.1061166!4d110.4633573!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11k4jx9wnz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Watu+Resort+Gunung+Kidul/@-8.1061166,110.1749662,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baf42b5a2bce7:0x30204f7140e89bb3!5m2!4m1!1i2!8m2!3d-8.1061166!4d110.4633573!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11k4jx9wnz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>1 hari lalu di 
 Google</t>
@@ -1580,25 +1549,24 @@
           <t>0817-311-013</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.4</v>
+        <v>-8.143696</v>
       </c>
       <c r="G28" t="n">
-        <v>-8.143696</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.607378</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Casa+Coco+Resort+Gunungkidul/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb3bfdf5e367:0xba6c8a363f8f9b47!5m2!4m1!1i2!8m2!3d-8.1436963!4d110.6073782!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11vpfnt0mr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1621,25 +1589,24 @@
           <t>(0274) 2902000</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.7</v>
+        <v>-7.938653</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.938653</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.575967</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hotel+Santika+Gunungkidul+-+Jogja/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a4dc9f4abf9cf:0x1552c34b694723d5!5m2!4m1!1i2!8m2!3d-7.9386526!4d110.575967!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11sgxjz0sn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1662,25 +1629,24 @@
           <t>0812-9862-3668</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F30" t="n">
-        <v>3.8</v>
+        <v>-8.149084</v>
       </c>
       <c r="G30" t="n">
-        <v>-8.149084</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.617225</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Radika+Paradise+Villa+%26+Cottage/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb93120f9706b:0x975b2a321357dae8!5m2!4m1!1i2!8m2!3d-8.1490842!4d110.6172251!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFdmlsbGHgAQA!16s%2Fg%2F11ff0sy0qp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1699,25 +1665,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>-8.130618</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.130618</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.549217</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Baron+beach+bungalow/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbbb19b54aad7:0xddc065efb43f22d!5m2!4m1!1i2!8m2!3d-8.1306185!4d110.5492174!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFdmlsbGHgAQA!16s%2Fg%2F11pwyv4d5l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Baron+beach+bungalow/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbbb19b54aad7:0xddc065efb43f22d!5m2!4m1!1i2!8m2!3d-8.1306185!4d110.5492174!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFdmlsbGHgAQA!16s%2Fg%2F11pwyv4d5l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>4 hari lalu di 
 Google</t>
@@ -1745,25 +1710,24 @@
           <t>0819-1549-6777</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.3</v>
+        <v>-7.964873</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.964873</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.608989</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Griya+Limasan+Hotel/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb35c696c1b6f:0x4dc04ff3f9990263!5m2!4m1!1i2!8m2!3d-7.9648727!4d110.6089885!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11c38dkq7m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1786,25 +1750,24 @@
           <t>0822-2781-6831</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.4</v>
+        <v>-7.967907</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.967907</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.592399</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Alzara+Hotel/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb33f8537c19b:0xc2a91e4b9a049c41!5m2!4m1!1i2!8m2!3d-7.9679073!4d110.5923987!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11bvt40dbm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1827,25 +1790,24 @@
           <t>0813-2846-3551</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.7</v>
+        <v>-8.130642</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.130642</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.555302</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Penginapan+Barokah+Pantai+Kukup/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba9195d13555:0x138f3c9c398b9bef!5m2!4m1!1i2!8m2!3d-8.1306424!4d110.5553017!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbG9kZ2XgAQA!16s%2Fg%2F11b90f8bj0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Penginapan+Barokah+Pantai+Kukup/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba9195d13555:0x138f3c9c398b9bef!5m2!4m1!1i2!8m2!3d-8.1306424!4d110.5553017!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbG9kZ2XgAQA!16s%2Fg%2F11b90f8bj0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -1873,25 +1835,24 @@
           <t>(0274) 368729</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>-8.020579</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.020579</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.335373</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Adinda+Hotel/@-8.0205793,110.0469818,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a55fed76c8c8b:0x3973429da81ca5b9!5m2!4m1!1i2!8m2!3d-8.0205793!4d110.3353729!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEHbG9kZ2luZ-ABAA!16s%2Fg%2F11b6dg1jq6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1914,25 +1875,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F36" t="n">
-        <v>3.6</v>
+        <v>-8.02398</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.02398</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.333041</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hotel+Widodo+1+Parangtritis+Mitra+RedDoorz/@-8.0205793,110.0469818,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baa7530395913:0x551772e33f12dd8f!5m2!4m1!1i2!8m2!3d-8.0239796!4d110.3330405!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11g8nj1bsb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hotel+Widodo+1+Parangtritis+Mitra+RedDoorz/@-8.0205793,110.0469818,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baa7530395913:0x551772e33f12dd8f!5m2!4m1!1i2!8m2!3d-8.0239796!4d110.3330405!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11g8nj1bsb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -1960,25 +1920,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>-7.857377</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.857377</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.79334</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/OYO+Homes+91154+Desa+Wisata+Wayang+Manyaran+Wonogiri/@-7.8573768,110.504949,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a35edf1b263a1:0x6146c1ff6fe4edce!5m2!4m1!1i2!8m2!3d-7.8573768!4d110.7933401!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11s2hwn7vg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/OYO+Homes+91154+Desa+Wisata+Wayang+Manyaran+Wonogiri/@-7.8573768,110.504949,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a35edf1b263a1:0x6146c1ff6fe4edce!5m2!4m1!1i2!8m2!3d-7.8573768!4d110.7933401!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11s2hwn7vg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>setahun lalu di 
 Google</t>
@@ -2002,25 +1961,24 @@
           <t>0878-3974-5149</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F38" t="n">
-        <v>3.8</v>
+        <v>-8.136813</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.136813</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.575056</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Villa+Watu+Kodok/@-8.1368127,110.2866644,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbbd62c537db1:0x95c550edd26f7ac!5m2!4m1!1i2!8m2!3d-8.1368127!4d110.5750555!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbG9kZ2XgAQA!16s%2Fg%2F11g_qrv5d2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2039,25 +1997,24 @@
           <t>0812-2588-8257</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.2</v>
+        <v>-8.131924</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.131924</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.5513</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ama+Awa+Resort/@-8.1368127,110.2866644,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbbf56df3b87f:0x1c6b1325d2466ca5!5m2!4m1!1i2!8m2!3d-8.1319238!4d110.5513004!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11khf7frw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ama+Awa+Resort/@-8.1368127,110.2866644,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbbf56df3b87f:0x1c6b1325d2466ca5!5m2!4m1!1i2!8m2!3d-8.1319238!4d110.5513004!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11khf7frw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>3 hari lalu di 
 Google</t>
@@ -2081,25 +2038,24 @@
           <t>0878-7855-5266</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.6</v>
+        <v>-7.994272</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.994272</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.592087</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Mulyo+-+Homestay/@-8.1368127,110.2866644,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3a1c2de940f:0x1ad3c70c601bde3c!5m2!4m1!1i2!8m2!3d-7.9942725!4d110.5920867!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11d_7792bb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/The+Mulyo+-+Homestay/@-8.1368127,110.2866644,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3a1c2de940f:0x1ad3c70c601bde3c!5m2!4m1!1i2!8m2!3d-7.9942725!4d110.5920867!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11d_7792bb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -2127,25 +2083,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>3.2</v>
+      </c>
       <c r="F41" t="n">
-        <v>3.2</v>
+        <v>-8.019958000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.019958000000001</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.327064</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/RedDoorz+@+Paris+Ocean/@-8.0199579,110.0386729,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7b009e9cb5c843:0x5f671096ce6470ef!5m2!4m1!1i2!8m2!3d-8.0199579!4d110.327064!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fp1t8gqy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2168,25 +2123,24 @@
           <t>0819-3676-4756</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.6</v>
+        <v>-8.021732</v>
       </c>
       <c r="G42" t="n">
-        <v>-8.021732</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.348206</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Watu+Paris+Jogja/@-8.0199579,110.0386729,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7babf87252411b:0xfbf141785031c0d3!5m2!4m1!1i2!8m2!3d-8.0217323!4d110.3482055!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11sqpg3kbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Watu+Paris+Jogja/@-8.0199579,110.0386729,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7babf87252411b:0xfbf141785031c0d3!5m2!4m1!1i2!8m2!3d-8.0217323!4d110.3482055!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11sqpg3kbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>1 hari lalu di 
 Google</t>
@@ -2214,25 +2168,24 @@
           <t>0811-3891-888</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.6</v>
+        <v>-8.130908</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.130908</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.548736</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Baron+Lighthouse+Cottage+%26+Eatery/@-8.1309079,110.2603451,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb8932024059:0xc0c6af069d8dcab4!5m2!4m1!1i2!8m2!3d-8.1309079!4d110.5487362!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEPY290dGFnZV92aWxsYWdl4AEA!16s%2Fg%2F11rhsw03_d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Baron+Lighthouse+Cottage+%26+Eatery/@-8.1309079,110.2603451,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb8932024059:0xc0c6af069d8dcab4!5m2!4m1!1i2!8m2!3d-8.1309079!4d110.5487362!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEPY290dGFnZV92aWxsYWdl4AEA!16s%2Fg%2F11rhsw03_d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -2256,25 +2209,24 @@
           <t>(021) 29707600</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.4</v>
+        <v>-7.968816</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.968816</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.600306</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BeGe+HOMESTAY/@-8.1309079,110.2603451,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb341630461a7:0x17968dc42adc1ab2!5m2!4m1!1i2!8m2!3d-7.9688165!4d110.6003059!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11cjj16xkw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BeGe+HOMESTAY/@-8.1309079,110.2603451,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb341630461a7:0x17968dc42adc1ab2!5m2!4m1!1i2!8m2!3d-7.9688165!4d110.6003059!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11cjj16xkw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -2302,25 +2254,24 @@
           <t>0851-0660-0669</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>-7.956772</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.956772</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.621156</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/WISMA+HN/@-8.1309079,110.2603451,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb5eb956dbb03:0x3938c1a36c3d272a!5m2!4m1!1i2!8m2!3d-7.9567721!4d110.6211557!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11wqvcbpvx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2339,25 +2290,24 @@
           <t>0852-2852-7177</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>2.6</v>
+      </c>
       <c r="F46" t="n">
-        <v>2.6</v>
+        <v>-8.188058</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.188058</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.711916</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Griya+Salaman+Wediombo/@-8.1880578,110.4235247,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb9e80bbb2a05:0xc24732d51901343d!5m2!4m1!1i2!8m2!3d-8.1880578!4d110.7119158!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11gmyqfp0_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2380,25 +2330,24 @@
           <t>0813-2807-7444</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.4</v>
+        <v>-7.926142</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.926142</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.646414</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/The+New+Orlinds+Guest+House/@-7.9261418,110.358023,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a4b3e010624a1:0x50e24c89f6ed526e!5m2!4m1!1i2!8m2!3d-7.9261418!4d110.6464141!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbG9kZ2XgAQA!16s%2Fg%2F11bw3x2n4l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2421,25 +2370,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.8</v>
+        <v>-7.870303</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.870303</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.460772</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/VIKI+%5BVilla+KLENGKONG+INDAH%5D/@-7.8703035,110.1723804,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5143d7f9f761:0xae542cce939b86f0!5m2!4m1!1i2!8m2!3d-7.8703035!4d110.4607715!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11rqckkjkc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/VIKI+%5BVilla+KLENGKONG+INDAH%5D/@-7.8703035,110.1723804,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5143d7f9f761:0xae542cce939b86f0!5m2!4m1!1i2!8m2!3d-7.8703035!4d110.4607715!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11rqckkjkc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -2467,25 +2415,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F49" t="n">
-        <v>3.7</v>
+        <v>-8.020080999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.020080999999999</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.332499</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+near+Parangtritis+Beach/@-7.8703035,110.1723804,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7babc712682b43:0x269fd3bc993ab59b!5m2!4m1!1i2!8m2!3d-8.0200814!4d110.3324993!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgELZ3Vlc3RfaG91c2XgAQA!16s%2Fg%2F11fn6mhr55?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+near+Parangtritis+Beach/@-7.8703035,110.1723804,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7babc712682b43:0x269fd3bc993ab59b!5m2!4m1!1i2!8m2!3d-8.0200814!4d110.3324993!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgELZ3Vlc3RfaG91c2XgAQA!16s%2Fg%2F11fn6mhr55?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -2505,25 +2452,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.5</v>
+        <v>-8.14554</v>
       </c>
       <c r="G50" t="n">
-        <v>-8.14554</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.609929</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rock+Garden+Homestay+%26+Resto/@-8.1455405,110.321538,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba2f40ff262b:0x72ac37488dcda428!5m2!4m1!1i2!8m2!3d-8.1455405!4d110.6099291!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F1q62d1x2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rock+Garden+Homestay+%26+Resto/@-8.1455405,110.321538,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba2f40ff262b:0x72ac37488dcda428!5m2!4m1!1i2!8m2!3d-8.1455405!4d110.6099291!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F1q62d1x2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>4 hari lalu di 
 Google</t>
@@ -2547,25 +2493,24 @@
           <t>0878-3942-7171</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.4</v>
+        <v>-7.885677</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.885677</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.512102</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wulenpari/@-7.8856773,110.2237108,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a531cc6d4a3b1:0xb92f34dfdc406846!5m2!4m1!1i2!8m2!3d-7.8856773!4d110.5121019!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11gh4mcfys?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wulenpari/@-7.8856773,110.2237108,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a531cc6d4a3b1:0xb92f34dfdc406846!5m2!4m1!1i2!8m2!3d-7.8856773!4d110.5121019!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11gh4mcfys?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -2589,25 +2534,24 @@
           <t>0821-3563-3400</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.5</v>
+        <v>-7.83956</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.83956</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.520199</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Gunung+Purba+View/@-7.8856773,110.2237108,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5175867d4143:0x95cbe3c0886403b6!5m2!4m1!1i2!8m2!3d-7.83956!4d110.5201994!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11llkbclwx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Gunung+Purba+View/@-7.8856773,110.2237108,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5175867d4143:0x95cbe3c0886403b6!5m2!4m1!1i2!8m2!3d-7.83956!4d110.5201994!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11llkbclwx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>2 tahun lalu di 
 Google</t>
@@ -2631,25 +2575,24 @@
           <t>0818-0407-8555</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>-7.934108</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.934108</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.652014</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPOT+ON+94116+Homestay+Gua+Pindul+Kang+Haris/@-7.8856773,110.2237108,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a4b77a282931f:0x61cac844e2ff52cb!5m2!4m1!1i2!8m2!3d-7.9341084!4d110.652014!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEScHJpdmF0ZV9ndWVzdF9yb29t4AEA!16s%2Fg%2F11t_ks180f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPOT+ON+94116+Homestay+Gua+Pindul+Kang+Haris/@-7.8856773,110.2237108,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a4b77a282931f:0x61cac844e2ff52cb!5m2!4m1!1i2!8m2!3d-7.9341084!4d110.652014!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEScHJpdmF0ZV9ndWVzdF9yb29t4AEA!16s%2Fg%2F11t_ks180f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>3 bulan lalu di 
 Google</t>
@@ -2677,25 +2620,24 @@
           <t>0878-3830-7780</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F54" t="n">
-        <v>3.9</v>
+        <v>-8.022599</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.022599</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.332203</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Losmen+Panorama/@-8.0225987,110.0438118,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baa756b000009:0xb51a3fe5671cfb06!5m2!4m1!1i2!8m2!3d-8.0225987!4d110.3322029!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbW90ZWzgAQA!16s%2Fg%2F11dx98x95q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Losmen+Panorama/@-8.0225987,110.0438118,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baa756b000009:0xb51a3fe5671cfb06!5m2!4m1!1i2!8m2!3d-8.0225987!4d110.3322029!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbW90ZWzgAQA!16s%2Fg%2F11dx98x95q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>2 hari lalu di 
 Google</t>
@@ -2723,25 +2665,24 @@
           <t>0821-3544-6969</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.6</v>
+        <v>-8.02624</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.02624</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.574194</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Giri+Wanara+Glamping+Resort/@-8.0262399,110.2858024,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3feee4d8d67:0x8773d4eafed4da8c!5m2!4m1!1i2!8m2!3d-8.0262399!4d110.5741935!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11q_8qdync?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2764,25 +2705,24 @@
           <t>0821-3544-6969</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.6</v>
+        <v>-8.03467</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.03467</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.348441</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Edge+Resort+Yogyakarta/@-8.0346702,110.0600497,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7babb3a9945f8d:0x7f1996e622912b9e!5m2!4m1!1i2!8m2!3d-8.0346702!4d110.3484408!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11nfrdsvrq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Edge+Resort+Yogyakarta/@-8.0346702,110.0600497,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7babb3a9945f8d:0x7f1996e622912b9e!5m2!4m1!1i2!8m2!3d-8.0346702!4d110.3484408!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11nfrdsvrq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>13 jam lalu di 
 Google</t>
@@ -2806,25 +2746,24 @@
           <t>(0274) 391219</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F57" t="n">
-        <v>3.9</v>
+        <v>-7.967017</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.967017</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.606094</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tilamsari+Hotel/@-7.967017,110.3177025,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb34d8cc72125:0x2efa626bf93d7ffa!5m2!4m1!1i2!8m2!3d-7.967017!4d110.6060936!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11gdhjkmyq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2847,25 +2786,24 @@
           <t>0823-2494-3532</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.9</v>
+        <v>-7.849452</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.849452</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.477596</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Contana+Hotel+Glamping/@-7.967017,110.3177025,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5107239900a9:0x376b7b3308eac922!5m2!4m1!1i2!8m2!3d-7.8494521!4d110.4775963!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11v_7jkq77?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2884,25 +2822,24 @@
           <t>0813-9289-5109</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F59" t="n">
-        <v>3.8</v>
+        <v>-8.146523999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.146523999999999</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.607053</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Omah+Kayu+Homestay/@-7.967017,110.3177025,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb74596fe859:0x7fa13c991983a44e!5m2!4m1!1i2!8m2!3d-8.1465236!4d110.6070531!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbG9kZ2XgAQA!16s%2Fg%2F11h77wlj5_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2925,25 +2862,24 @@
           <t>0822-2704-0390</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.9</v>
+        <v>-8.130367</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.130367</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.55188</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Naradhipta+Resort/@-7.967017,110.3177025,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb5b51f84289:0x2d5ce14bcb80246b!5m2!4m1!1i2!8m2!3d-8.1303675!4d110.5518802!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11w49dyc2v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2966,25 +2902,24 @@
           <t>(0274) 367136</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.4</v>
+        <v>-8.027927</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.027927</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.34124</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Queen+Of+The+South+Beach+Resort+%26+Hotel/@-8.0279269,110.0528489,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7b0096c9fe2179:0x4e00a77272d24691!5m2!4m1!1i2!8m2!3d-8.0279269!4d110.34124!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11bc7prmf2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3003,25 +2938,24 @@
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>-7.896596</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.896596</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.439615</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Homestay+Kurnia/@-8.0279269,110.0528489,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5308cb09e18b:0xa5900abc375c7473!5m2!4m1!1i2!8m2!3d-7.8965965!4d110.439615!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11qls5z5jz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Homestay+Kurnia/@-8.0279269,110.0528489,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5308cb09e18b:0xa5900abc375c7473!5m2!4m1!1i2!8m2!3d-7.8965965!4d110.439615!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11qls5z5jz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -3045,25 +2979,24 @@
           <t>0858-6655-3844</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.4</v>
+        <v>-8.13302</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.13302</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.552502</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Inessya+Resort/@-8.1330199,110.2641113,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba93ebb44f41:0x9c9929ca51b463ab!5m2!4m1!1i2!8m2!3d-8.1330199!4d110.5525024!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11c57d9b2d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3082,25 +3015,24 @@
           <t>0857-2750-7728</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>5</v>
+      </c>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>-8.149304000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.149304000000001</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.614844</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sarwi+Endah+Beach+Cottage/@-8.1330199,110.2641113,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb3f650ee135:0xd947db90558961c1!5m2!4m1!1i2!8m2!3d-8.1493039!4d110.6148438!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11lp1gyplr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3119,25 +3051,24 @@
           <t>0813-9284-7532</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.2</v>
+        <v>-8.014448</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.014448</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.336961</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Losmen+Mekar+Melati/@-8.014448,110.0485699,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baa70ace5c9cf:0x65b3b4371b91e558!5m2!4m1!1i2!8m2!3d-8.014448!4d110.336961!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgERYmVkX2FuZF9icmVha2Zhc3TgAQA!16s%2Fg%2F11c5hjlz1t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3160,25 +3091,24 @@
           <t>0822-4257-9373</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.4</v>
+        <v>-8.150461999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.150461999999999</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.613981</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Kopiori/@-8.1504615,110.3255895,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb50a80bcb11:0x4724f8300005774b!5m2!4m1!1i2!8m2!3d-8.1504615!4d110.6139806!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11llff6mlm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Kopiori/@-8.1504615,110.3255895,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb50a80bcb11:0x4724f8300005774b!5m2!4m1!1i2!8m2!3d-8.1504615!4d110.6139806!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11llff6mlm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -3202,25 +3132,24 @@
           <t>0812-8009-5776</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.7</v>
+        <v>-8.148699000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.148699000000001</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.616051</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Light+Blue+Villa/@-8.1504615,110.3255895,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba2bc08b865b:0xbf761552583e2708!5m2!4m1!1i2!8m2!3d-8.1486989!4d110.6160511!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgENY291bnRyeV9ob3VzZeABAA!16s%2Fg%2F11s57yr8ks?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Light+Blue+Villa/@-8.1504615,110.3255895,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba2bc08b865b:0xbf761552583e2708!5m2!4m1!1i2!8m2!3d-8.1486989!4d110.6160511!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgENY291bnRyeV9ob3VzZeABAA!16s%2Fg%2F11s57yr8ks?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>3 hari lalu di 
 Google</t>
@@ -3248,25 +3177,24 @@
           <t>0813-2976-7117</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.8</v>
+        <v>-8.150050999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.150050999999999</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.614018</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Limasan+Mbah+Darmo/@-8.1504615,110.3255895,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb8235d8197d:0x65ac68bfb4a605b6!5m2!4m1!1i2!8m2!3d-8.1500513!4d110.6140176!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEOaW5kb29yX2xvZGdpbmfgAQA!16s%2Fg%2F11fsynxtp9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3289,25 +3217,24 @@
           <t>0813-2976-7117</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.8</v>
+        <v>-8.126208</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.126208</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.551301</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Home+Stay+Baron+Sari/@-8.1504615,110.3255895,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba99f0daa333:0xe0cbc817db57a956!5m2!4m1!1i2!8m2!3d-8.1262076!4d110.5513005!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F1pzw4vznl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Home+Stay+Baron+Sari/@-8.1504615,110.3255895,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba99f0daa333:0xe0cbc817db57a956!5m2!4m1!1i2!8m2!3d-8.1262076!4d110.5513005!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F1pzw4vznl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>2 hari lalu di 
 Google</t>
@@ -3335,25 +3262,24 @@
           <t>0821-3746-0009</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.2</v>
+        <v>-7.844602</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.844602</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.480326</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bukit+Indah+%7C+Resto+%26+Hotel/@-7.8446018,110.1919347,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a51a580e04827:0xf3261d80d66e44ee!5m2!4m1!1i2!8m2!3d-7.8446018!4d110.4803258!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F12hrt5k92?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bukit+Indah+%7C+Resto+%26+Hotel/@-7.8446018,110.1919347,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a51a580e04827:0xf3261d80d66e44ee!5m2!4m1!1i2!8m2!3d-7.8446018!4d110.4803258!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F12hrt5k92?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -3373,25 +3299,24 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.5</v>
+        <v>-8.104331999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.104331999999999</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.460338</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/HEHA+New+Cabin%2B+Ocean+Glamping/@-8.1043318,110.1719469,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baf0028b96af7:0xc3575bf9adebf702!5m2!4m1!1i2!8m2!3d-8.1043318!4d110.460338!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgENY2FtcGluZ19jYWJpbuABAA!16s%2Fg%2F11vk8f464z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3406,25 +3331,24 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.5</v>
+        <v>-8.026457000000001</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.026457000000001</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.57427</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homee+Glamping+Wunung+Giri/@-8.1043318,110.1719469,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3f56d56538d:0x288b244bc9209b0!5m2!4m1!1i2!8m2!3d-8.0264566!4d110.57427!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11yb7m08t7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3447,25 +3371,24 @@
           <t>0812-2692-7555</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.6</v>
+        <v>-7.895522</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.895522</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.439978</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Litto+(Little+Tokyo)+Jogja/@-8.1043318,110.1719469,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a53c1beee8dcf:0x517695ab6727d62!5m2!4m1!1i2!8m2!3d-7.8955224!4d110.4399784!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11rgfs_54t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Litto+(Little+Tokyo)+Jogja/@-8.1043318,110.1719469,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a53c1beee8dcf:0x517695ab6727d62!5m2!4m1!1i2!8m2!3d-7.8955224!4d110.4399784!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11rgfs_54t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>1 hari lalu di 
 Google</t>
@@ -3489,25 +3412,24 @@
           <t>(0274) 4537753</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F74" t="n">
-        <v>3.9</v>
+        <v>-8.022633000000001</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.022633000000001</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.334172</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hotel+Family+Syariah/@-8.1043318,110.1719469,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a57ae064315a9:0x5ba23c486a10f5a2!5m2!4m1!1i2!8m2!3d-8.0226328!4d110.3341723!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11cn5x9q3k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hotel+Family+Syariah/@-8.1043318,110.1719469,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a57ae064315a9:0x5ba23c486a10f5a2!5m2!4m1!1i2!8m2!3d-8.0226328!4d110.3341723!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11cn5x9q3k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -3531,21 +3453,20 @@
           <t>0813-3885-8232</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="n">
+      <c r="E75" t="n">
         <v>4.9</v>
       </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/D'TRUST+HOMESTAY+WONOSARI+GUNUNGKIDUL/@-8.1043318,110.1719469,11z/data=!4m16!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m11!1s0x2e7bb3c3594ddcad:0x6498e136084e6581!5m2!4m1!1i2!8m2!3d-7.9537162!4d110.5933675!9m1!1b1!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgELZ3Vlc3RfaG91c2XgAQA!16s%2Fg%2F11s5p5xvmh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3560,25 +3481,24 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4</v>
+      </c>
       <c r="F76" t="n">
-        <v>4</v>
+        <v>-7.972576</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.972576</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.602867</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Dewi+Ratih+Inn/@-8.1043318,110.1719469,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb368fd23f8db:0x80c5ff3bcf2d6426!5m2!4m1!1i2!8m2!3d-7.9725756!4d110.6028671!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEGaG9zdGVs4AEA!16s%2Fg%2F11cfdn2g9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3601,25 +3521,24 @@
           <t>0896-7440-5860</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F77" t="n">
-        <v>4.9</v>
+        <v>-7.857397</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.857397</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.451983</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bina+Karya+Guesthouse+Syariah/@-7.8573967,110.1635917,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5114ea4bfe39:0x854b379bbc2c6664!5m2!4m1!1i2!8m2!3d-7.8573967!4d110.4519828!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgELZ3Vlc3RfaG91c2XgAQA!16s%2Fg%2F11jp02gbc6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3642,25 +3561,24 @@
           <t>0852-3449-4748</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.5</v>
+        <v>-8.041929</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.041929</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.790856</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Green+Resort+Pracimantoro/@-8.0419292,110.5024653,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bc938a73a526b:0xafb2d4e5ebb2ff34!5m2!4m1!1i2!8m2!3d-8.0419292!4d110.7908564!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11f4t88kxz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3683,25 +3601,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F79" t="n">
-        <v>3.9</v>
+        <v>-7.95995</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.95995</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.603176</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/OYO+Life+3003+Wisma+Handayani+Syariah/@-7.9599503,110.3147844,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb38c373bb21f:0x19f670fbdc137bba!5m2!4m1!1i2!8m2!3d-7.9599503!4d110.6031755!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fq8l2_5_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/OYO+Life+3003+Wisma+Handayani+Syariah/@-7.9599503,110.3147844,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb38c373bb21f:0x19f670fbdc137bba!5m2!4m1!1i2!8m2!3d-7.9599503!4d110.6031755!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fq8l2_5_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>4 bulan lalu di 
 Google</t>
@@ -3729,25 +3646,24 @@
           <t>0877-1666-5494</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F80" t="n">
-        <v>4.3</v>
+        <v>-8.019881</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.019881</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.33336</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Villa+Alcheringa/@-8.0198809,110.0449693,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baa75d1980e15:0x8f4ef490c981007a!5m2!4m1!1i2!8m2!3d-8.0198809!4d110.3333604!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFdmlsbGHgAQA!16s%2Fg%2F11cmcvx79x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3770,25 +3686,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F81" t="n">
-        <v>3.5</v>
+        <v>-8.001804999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.001804999999999</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.591455</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/OYO+92290+Hotel+Permata+Sari/@-8.0018048,110.3030639,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3bd3ded06dd:0x5fa08853d4fd9571!5m2!4m1!1i2!8m2!3d-8.0018048!4d110.591455!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fzlhq1hs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/OYO+92290+Hotel+Permata+Sari/@-8.0018048,110.3030639,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3bd3ded06dd:0x5fa08853d4fd9571!5m2!4m1!1i2!8m2!3d-8.0018048!4d110.591455!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fzlhq1hs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -3816,25 +3731,24 @@
           <t>0815-1431-6375</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F82" t="n">
-        <v>4.9</v>
+        <v>-7.949239</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.949239</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.335027</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/VILLACANTIK+YOGYAKARTA/@-7.9492394,110.0466361,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a558bfc3a4a71:0x573746340734794!5m2!4m1!1i2!8m2!3d-7.9492394!4d110.3350272!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11pxhfdpq8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3853,25 +3767,24 @@
           <t>0817-788-016</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>5</v>
+      </c>
       <c r="F83" t="n">
-        <v>5</v>
+        <v>-7.880877</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.880877</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.445556</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/OYO+94120+Penginapan+Viki+Syariah/@-7.9492394,110.0466361,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a53e695524779:0x6f216c405201262c!5m2!4m1!1i2!8m2!3d-7.880877!4d110.445556!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11w2k1chld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3890,25 +3803,24 @@
           <t>0899-9164-754</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F84" t="n">
-        <v>4.6</v>
+        <v>-7.963996</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.963996</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.594339</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kos+%26+Penginapan+'Kasur+Sare'/@-7.9639957,110.3059475,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb34747fe2d3d:0xa237571dcf4e79ac!5m2!4m1!1i2!8m2!3d-7.9639957!4d110.5943386!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEOYm9hcmRpbmdfaG91c2XgAQA!16s%2Fg%2F11c2ppt3v6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3927,25 +3839,24 @@
           <t>0812-2999-8969</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F85" t="n">
-        <v>4.6</v>
+        <v>-7.977264</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.977264</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.416018</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Blarak+Villa/@-7.9772636,110.1276271,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bab47b524c133:0xf386d3da95d964a3!5m2!4m1!1i2!8m2!3d-7.9772636!4d110.4160182!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFdmlsbGHgAQA!16s%2Fg%2F11pkx8s3qq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Blarak+Villa/@-7.9772636,110.1276271,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bab47b524c133:0xf386d3da95d964a3!5m2!4m1!1i2!8m2!3d-7.9772636!4d110.4160182!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFdmlsbGHgAQA!16s%2Fg%2F11pkx8s3qq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>7 bulan lalu di 
 Google</t>
@@ -3969,25 +3880,24 @@
           <t>0856-4733-7357</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>5</v>
+      </c>
       <c r="F86" t="n">
-        <v>5</v>
+        <v>-7.964327</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.964327</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.609517</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/OMAH+PRAYA+KOSTEL/@-7.9643268,110.3211254,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb30079705c33:0x11946d9505fc4351!5m2!4m1!1i2!8m2!3d-7.9643268!4d110.6095165!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11w266jp_n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4006,25 +3916,24 @@
           <t>0813-9271-8897</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F87" t="n">
-        <v>4.4</v>
+        <v>-8.124345999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.124345999999999</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.553632</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampoeng+Baron+Art+Resort+Restaurant+and+Guesthouse/@-7.9643268,110.3211254,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba9a526ed4b7:0xc215c957581fd3ba!5m2!4m1!1i2!8m2!3d-8.1243461!4d110.5536321!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgESc2VhZm9vZF9yZXN0YXVyYW504AEA!16s%2Fg%2F11clyt2z3q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4047,25 +3956,24 @@
           <t>0857-2978-0552</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F88" t="n">
-        <v>3.9</v>
+        <v>-8.020313</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.020313</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.333402</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Losmen+Kinasih+Puncak/@-8.0203127,110.0450105,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baa75cea55d31:0xff23c6cf9e975b77!5m2!4m1!1i2!8m2!3d-8.0203127!4d110.3334016!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11f_cwdcnz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Losmen+Kinasih+Puncak/@-8.0203127,110.0450105,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baa75cea55d31:0xff23c6cf9e975b77!5m2!4m1!1i2!8m2!3d-8.0203127!4d110.3334016!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11f_cwdcnz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -4085,25 +3993,24 @@
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>2</v>
+      </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>-8.136069000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>-8.136069000000001</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.56453</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/OYO+94017+Victouris+Resort/@-8.136069,110.2761389,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba8b49732d41:0x46833ed81c390d1f!5m2!4m1!1i2!8m2!3d-8.136069!4d110.56453!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11w3zk5f9y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4122,25 +4029,24 @@
           <t>0823-2867-2011</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F90" t="n">
-        <v>4.6</v>
+        <v>-8.146679000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-8.146679000000001</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.607473</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Camping+Arena+%7C%7C+SEWA+TENDA+CAMPING/@-8.136069,110.2761389,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb4a3fbd3e45:0x5114520c66416579!5m2!4m1!1i2!8m2!3d-8.1466789!4d110.6074725!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEKY2FtcGdyb3VuZOABAA!16s%2Fg%2F11fqptth1t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J90" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Camping+Arena+%7C%7C+SEWA+TENDA+CAMPING/@-8.136069,110.2761389,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb4a3fbd3e45:0x5114520c66416579!5m2!4m1!1i2!8m2!3d-8.1466789!4d110.6074725!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEKY2FtcGdyb3VuZOABAA!16s%2Fg%2F11fqptth1t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
         <is>
           <t>4 minggu lalu di 
 Google</t>
@@ -4164,25 +4070,24 @@
           <t>0813-2832-7199</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F91" t="n">
-        <v>4.7</v>
+        <v>-8.14528</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.14528</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.60897</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Dua+Putra+Pantai+Sundak/@-8.136069,110.2761389,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb33ad3d42e1:0x9b7dd1ea78793eee!5m2!4m1!1i2!8m2!3d-8.1452797!4d110.6089699!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11gmfy2_fg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4201,25 +4106,24 @@
           <t>0888-0198-9335</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F92" t="n">
-        <v>4.9</v>
+        <v>-8.133508000000001</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.133508000000001</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.555861</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Denciut/@-8.136069,110.2761389,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb4c58e02071:0x88e32076bb0ddc41!5m2!4m1!1i2!8m2!3d-8.1335084!4d110.5558611!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11sbmv_rpd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4238,25 +4142,24 @@
           <t>0817-788-016</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>-8.126222</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.126222</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.551341</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/OYO+94016+Homestay+Baronsari/@-8.136069,110.2761389,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba9a02a820bf:0x9471567b5caf999b!5m2!4m1!1i2!8m2!3d-8.126222!4d110.551341!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11w1qgmtsv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
